--- a/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -32,6 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="G4")</t>
@@ -119,18 +120,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
+    <t>$[SUMPRODUCT(E3:E3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(E3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -146,12 +147,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -159,6 +162,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -166,11 +170,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,6 +205,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -572,7 +579,7 @@
   <dimension ref="A1:EG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,10 +908,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
@@ -120,11 +120,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(E3:E3+0)]</t>
+    <t>$[SUMPRODUCT(E3:E3:E3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +579,7 @@
   <dimension ref="A1:EG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,11 +40,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G4")</t>
+          <t>jx:area(lastCell="H4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>货号</t>
   </si>
@@ -120,11 +125,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(E3:E3:E3+0)]</t>
+    <t>${obj.barCode}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
+    <t>条码</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'm</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3:F3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +224,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -266,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,18 +303,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -576,39 +587,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EG4"/>
+  <dimension ref="A1:EH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:138" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -732,8 +743,9 @@
       <c r="EE1" s="5"/>
       <c r="EF1" s="5"/>
       <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
     </row>
-    <row r="2" spans="1:137" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:138" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -741,21 +753,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -879,44 +893,48 @@
       <c r="DY2" s="5"/>
       <c r="DZ2" s="5"/>
       <c r="EA2" s="5"/>
+      <c r="EB2" s="5"/>
     </row>
-    <row r="3" spans="1:137" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:138" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:137" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:138" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>17</v>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingPPDetail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1">
+    <comment ref="A3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,14 +303,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,30 +590,30 @@
   <dimension ref="A1:EH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:138" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -745,7 +745,7 @@
       <c r="EG1" s="5"/>
       <c r="EH1" s="5"/>
     </row>
-    <row r="2" spans="1:138" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:138" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -895,14 +895,14 @@
       <c r="EA2" s="5"/>
       <c r="EB2" s="5"/>
     </row>
-    <row r="3" spans="1:138" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:138" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -914,10 +914,10 @@
       <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -925,10 +925,11 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
